--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/14.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/14.xlsx
@@ -479,13 +479,13 @@
         <v>-9.461658025522958</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.37269385546477</v>
+        <v>-10.42777317351991</v>
       </c>
       <c r="F2" t="n">
-        <v>2.889651815569635</v>
+        <v>3.068361749359196</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.94924242017241</v>
+        <v>-16.3654205429052</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.016256137580884</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.87659040723712</v>
+        <v>-10.92854066491309</v>
       </c>
       <c r="F3" t="n">
-        <v>2.753413312198634</v>
+        <v>2.914972329265534</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.51967087163254</v>
+        <v>-15.89565562464123</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.455934380171527</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.16274887044873</v>
+        <v>-11.15550882697726</v>
       </c>
       <c r="F4" t="n">
-        <v>2.889101938850283</v>
+        <v>3.031781855219414</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.99553361966688</v>
+        <v>-15.34173338371064</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.856108637589641</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.69654824191159</v>
+        <v>-11.67464481925738</v>
       </c>
       <c r="F5" t="n">
-        <v>2.952573423026971</v>
+        <v>3.066005134847686</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.36648774503047</v>
+        <v>-14.68590065746006</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.235982613709908</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.4360407833208</v>
+        <v>-12.44135625827454</v>
       </c>
       <c r="F6" t="n">
-        <v>2.972421354135028</v>
+        <v>3.090932879458332</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.87032874423757</v>
+        <v>-14.18430835098785</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.635666924832893</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.74217810066888</v>
+        <v>-12.68929828949115</v>
       </c>
       <c r="F7" t="n">
-        <v>3.206721205790557</v>
+        <v>3.340079402536379</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.19185942637364</v>
+        <v>-13.51705913665928</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.076688703671162</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.53022999331806</v>
+        <v>-13.48658025564374</v>
       </c>
       <c r="F8" t="n">
-        <v>3.349662968216522</v>
+        <v>3.491347869569682</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.88370589438794</v>
+        <v>-13.22572921382519</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.578208325691232</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.16131826719778</v>
+        <v>-14.12695097223825</v>
       </c>
       <c r="F9" t="n">
-        <v>3.506665863894502</v>
+        <v>3.652278456100179</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.25284018965653</v>
+        <v>-12.6263112205196</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.148990446425816</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.15341369963525</v>
+        <v>-15.11541983678856</v>
       </c>
       <c r="F10" t="n">
-        <v>3.688387027337659</v>
+        <v>3.822687869888085</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.91462673034622</v>
+        <v>-12.28803229969509</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.788850167293214</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.02453625381518</v>
+        <v>-15.99223754270464</v>
       </c>
       <c r="F11" t="n">
-        <v>3.857853795320962</v>
+        <v>3.992128453265704</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.42126948236145</v>
+        <v>-11.76587198545853</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.497926983685742</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.83944045959274</v>
+        <v>-16.77223766910616</v>
       </c>
       <c r="F12" t="n">
-        <v>3.890767844665061</v>
+        <v>4.01902004330261</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.18369655499549</v>
+        <v>-11.5238869520349</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.263622763741567</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44798378797901</v>
+        <v>-17.37834582916387</v>
       </c>
       <c r="F13" t="n">
-        <v>3.754895925773628</v>
+        <v>3.892757874697003</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.59473931166045</v>
+        <v>-10.93868719961543</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.080472137673818</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.4007368503771</v>
+        <v>-18.30312064038919</v>
       </c>
       <c r="F14" t="n">
-        <v>3.991211992066783</v>
+        <v>4.144156273863827</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.02091677041043</v>
+        <v>-10.38691209635089</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.927691285499685</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.23965233956638</v>
+        <v>-19.1274251196071</v>
       </c>
       <c r="F15" t="n">
-        <v>4.032295638384119</v>
+        <v>4.187779826932458</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.531382474855453</v>
+        <v>-9.886890866219684</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.793711102385974</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.24800841213328</v>
+        <v>-20.16542216580767</v>
       </c>
       <c r="F16" t="n">
-        <v>4.237556762336701</v>
+        <v>4.408175652970075</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.004940977589648</v>
+        <v>-9.359991138354419</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.655939848887608</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.21652460715281</v>
+        <v>-21.15230686171414</v>
       </c>
       <c r="F17" t="n">
-        <v>4.43354853587734</v>
+        <v>4.577275836473809</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.639128943888981</v>
+        <v>-9.012063190335548</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.503005556270725</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.98296110781029</v>
+        <v>-21.93552769461472</v>
       </c>
       <c r="F18" t="n">
-        <v>4.70759661896035</v>
+        <v>4.868003513377178</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.137523545113929</v>
+        <v>-8.482322432753628</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.319605607617059</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.69376841369328</v>
+        <v>-22.60474075436954</v>
       </c>
       <c r="F19" t="n">
-        <v>4.897435010165379</v>
+        <v>5.052264583571631</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.59056640929514</v>
+        <v>-7.959206380409621</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.102080008356242</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.40750839541282</v>
+        <v>-23.35478569186919</v>
       </c>
       <c r="F20" t="n">
-        <v>4.989997591256381</v>
+        <v>5.119218620304218</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.884838916914738</v>
+        <v>-7.275657249043102</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.845817025395251</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.07638105529376</v>
+        <v>-24.03730053131121</v>
       </c>
       <c r="F21" t="n">
-        <v>5.030609914671416</v>
+        <v>5.141658827374936</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.730100989628378</v>
+        <v>-7.096135592477355</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.554505332989676</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.80102692528046</v>
+        <v>-24.74490022299798</v>
       </c>
       <c r="F22" t="n">
-        <v>5.350219211643632</v>
+        <v>5.452182066174995</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.58676645811716</v>
+        <v>-6.942785449292217</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.23176822754946</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.3308069597709</v>
+        <v>-25.29638729560001</v>
       </c>
       <c r="F23" t="n">
-        <v>5.322751560281691</v>
+        <v>5.420341585663917</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.257220103288073</v>
+        <v>-6.574747724108456</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.885609104544363</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.76670209058333</v>
+        <v>-25.72691458224733</v>
       </c>
       <c r="F24" t="n">
-        <v>5.238018176290041</v>
+        <v>5.308926088480828</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.953426308148662</v>
+        <v>-6.254012489091851</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.524737494843661</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.10479771916807</v>
+        <v>-26.09908947512907</v>
       </c>
       <c r="F25" t="n">
-        <v>5.347967335554856</v>
+        <v>5.415418879795428</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.671522843360616</v>
+        <v>-5.936000453066325</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.158688691492072</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.41978543323716</v>
+        <v>-26.44375743974036</v>
       </c>
       <c r="F26" t="n">
-        <v>5.341211707288525</v>
+        <v>5.388893874238091</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.429721102176777</v>
+        <v>-5.669441167208782</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.7985567165179532</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.1806152449245</v>
+        <v>-26.18708284252832</v>
       </c>
       <c r="F27" t="n">
-        <v>5.450584805228305</v>
+        <v>5.496119834511828</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.98616697420194</v>
+        <v>-5.209430014561895</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.4527434495518716</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.35763627164748</v>
+        <v>-26.38438384635313</v>
       </c>
       <c r="F28" t="n">
-        <v>5.252786293895507</v>
+        <v>5.305705381981764</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.812759423063278</v>
+        <v>-5.013254948781471</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.1324109525536727</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.48556116271399</v>
+        <v>-26.50032928031945</v>
       </c>
       <c r="F29" t="n">
-        <v>5.296409846964139</v>
+        <v>5.350847642180035</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.769646469805474</v>
+        <v>-4.964682505238668</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.156302895636465</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.53341352960049</v>
+        <v>-26.58938312424887</v>
       </c>
       <c r="F30" t="n">
-        <v>5.285333758760038</v>
+        <v>5.342101983881762</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.767630255167848</v>
+        <v>-4.943787189903273</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4046705568588456</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.16515323526842</v>
+        <v>-26.21999689187241</v>
       </c>
       <c r="F31" t="n">
-        <v>5.162868357978533</v>
+        <v>5.239327406574213</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.977696254263344</v>
+        <v>-5.160137494362796</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6110062361372203</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.83724341829455</v>
+        <v>-25.92094251036171</v>
       </c>
       <c r="F32" t="n">
-        <v>5.188869671422201</v>
+        <v>5.292691632957088</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.059549331629815</v>
+        <v>-5.238154526996642</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7702127254660327</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.67698053920898</v>
+        <v>-25.78775451355283</v>
       </c>
       <c r="F33" t="n">
-        <v>5.090363184841054</v>
+        <v>5.197746252748891</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.127707860223841</v>
+        <v>-5.311680899755776</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8839677443105949</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.18810085879609</v>
+        <v>-25.29764415667281</v>
       </c>
       <c r="F34" t="n">
-        <v>5.144486764788749</v>
+        <v>5.244354850865435</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.356757698439838</v>
+        <v>-5.548546842768284</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.951373889195045</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.86062308781599</v>
+        <v>-24.94959837792837</v>
       </c>
       <c r="F35" t="n">
-        <v>4.983687101286669</v>
+        <v>5.075725990264004</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.469953748809401</v>
+        <v>-5.673159381215832</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9772014187979751</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.34812489307663</v>
+        <v>-24.43173233902389</v>
       </c>
       <c r="F36" t="n">
-        <v>5.150613962518677</v>
+        <v>5.289680403303492</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.505577904841738</v>
+        <v>-5.688411914026442</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9653486395637508</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.80373384861482</v>
+        <v>-23.91977092870104</v>
       </c>
       <c r="F37" t="n">
-        <v>5.119480466361052</v>
+        <v>5.245009466007522</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.592065657414181</v>
+        <v>-5.737324757443131</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9215677673277874</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.19822793448783</v>
+        <v>-23.30575501772692</v>
       </c>
       <c r="F38" t="n">
-        <v>4.924928846133003</v>
+        <v>5.045456586093933</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.619454754959071</v>
+        <v>-5.786159047042769</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8500453581756588</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.10929192128398</v>
+        <v>-23.24270248724117</v>
       </c>
       <c r="F39" t="n">
-        <v>5.074626236825299</v>
+        <v>5.192168931738316</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.614715341330367</v>
+        <v>-5.79693401228151</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7549268684298005</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.39085180284427</v>
+        <v>-22.52092383157681</v>
       </c>
       <c r="F40" t="n">
-        <v>5.24681620379968</v>
+        <v>5.363756652781977</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.664361353706192</v>
+        <v>-5.84266542610766</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6404395562333022</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.88436297510925</v>
+        <v>-21.99329093475241</v>
       </c>
       <c r="F41" t="n">
-        <v>5.215735076853423</v>
+        <v>5.328302696686583</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.747157076877268</v>
+        <v>-5.922004781328519</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5105065738306507</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.06276860257957</v>
+        <v>-21.16998147055047</v>
       </c>
       <c r="F42" t="n">
-        <v>5.350978565208453</v>
+        <v>5.478759440943699</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.977293576229129</v>
+        <v>-6.16556089109315</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3689690737710754</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.56774863213391</v>
+        <v>-20.67700389934812</v>
       </c>
       <c r="F43" t="n">
-        <v>5.346317705396798</v>
+        <v>5.451658374061326</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.084755197954016</v>
+        <v>-6.243407723790052</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2193547588100875</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.91030555263379</v>
+        <v>-20.01537128293864</v>
       </c>
       <c r="F44" t="n">
-        <v>5.222647812753854</v>
+        <v>5.333644356246007</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.10541485183826</v>
+        <v>-6.275758804111958</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.06454645854988442</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.38593263921698</v>
+        <v>-19.4948475065573</v>
       </c>
       <c r="F45" t="n">
-        <v>5.147995501950332</v>
+        <v>5.245716450360975</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.103254621869375</v>
+        <v>-6.273716404868648</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.09214864955606002</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.71605187201722</v>
+        <v>-18.81687569620136</v>
       </c>
       <c r="F46" t="n">
-        <v>5.364646929375215</v>
+        <v>5.481718301385929</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.301969594401093</v>
+        <v>-6.512454547187524</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2488873125344136</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.36478538677371</v>
+        <v>-18.47546771499767</v>
       </c>
       <c r="F47" t="n">
-        <v>5.386877659600466</v>
+        <v>5.524556316284057</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.538115460757306</v>
+        <v>-6.77813664875467</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.4024343875045329</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.74187980217007</v>
+        <v>-17.8305277847114</v>
       </c>
       <c r="F48" t="n">
-        <v>5.29104200279903</v>
+        <v>5.440975054942478</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.695026710315394</v>
+        <v>-6.946582217116318</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.5527918540860145</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24959612301833</v>
+        <v>-17.35584016057894</v>
       </c>
       <c r="F49" t="n">
-        <v>5.31659817794608</v>
+        <v>5.466269384032692</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.01183425447948</v>
+        <v>-7.269137282227923</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.6977606181031424</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.64278097860717</v>
+        <v>-16.71745947401638</v>
       </c>
       <c r="F50" t="n">
-        <v>5.176431983722561</v>
+        <v>5.321232853152051</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.213691379693214</v>
+        <v>-7.493657183660684</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.8393039968406685</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.86316052898806</v>
+        <v>-15.92397427568788</v>
       </c>
       <c r="F51" t="n">
-        <v>5.115474221691485</v>
+        <v>5.244250112442701</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.263442130491772</v>
+        <v>-7.577487198756256</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.9756350386608972</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.38563187513895</v>
+        <v>-15.43521242600056</v>
       </c>
       <c r="F52" t="n">
-        <v>5.020502656877603</v>
+        <v>5.156714975642921</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.517157867261582</v>
+        <v>-7.824709153316569</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.109628502082791</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.80352190619012</v>
+        <v>-14.85272278026933</v>
       </c>
       <c r="F53" t="n">
-        <v>4.96973070645739</v>
+        <v>5.085807063452133</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.770755773305816</v>
+        <v>-8.091072054631486</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.239276241417717</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.09674702958239</v>
+        <v>-14.12052265154296</v>
       </c>
       <c r="F54" t="n">
-        <v>4.800970922827541</v>
+        <v>4.925400169035306</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.050485915822135</v>
+        <v>-8.400639555324098</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.366415316778171</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.5568204603896</v>
+        <v>-13.57102560897287</v>
       </c>
       <c r="F55" t="n">
-        <v>4.876722987069767</v>
+        <v>5.008326815234798</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.364819014749136</v>
+        <v>-8.714409685228906</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.489153178103571</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.23273359584551</v>
+        <v>-13.24739697502825</v>
       </c>
       <c r="F56" t="n">
-        <v>4.774681578721355</v>
+        <v>4.906442514520486</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.391160728066689</v>
+        <v>-8.748816257096962</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.608788674076526</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.92518230979053</v>
+        <v>-12.92596784796103</v>
       </c>
       <c r="F57" t="n">
-        <v>4.686910780470424</v>
+        <v>4.843363799429049</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.733249509018149</v>
+        <v>-9.103067787388385</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.724046092693291</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.44705141001069</v>
+        <v>-12.41127014634425</v>
       </c>
       <c r="F58" t="n">
-        <v>4.590315770104168</v>
+        <v>4.729434580100349</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.170100377938024</v>
+        <v>-9.538543964509879</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.835639154271689</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.13342529543714</v>
+        <v>-12.10422946010009</v>
       </c>
       <c r="F59" t="n">
-        <v>4.576778328965823</v>
+        <v>4.721998152086249</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.523042677945275</v>
+        <v>-9.905049890261157</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.943667493522116</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.79628540495986</v>
+        <v>-11.78722553139338</v>
       </c>
       <c r="F60" t="n">
-        <v>4.477198273551655</v>
+        <v>4.627812125442872</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.613366475250343</v>
+        <v>-9.955717102258637</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.04860547644079</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.64970398234389</v>
+        <v>-11.64080121641152</v>
       </c>
       <c r="F61" t="n">
-        <v>4.336717864059934</v>
+        <v>4.474003751658274</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.01033818971432</v>
+        <v>-10.35665578448366</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.151777979468914</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.58970195842026</v>
+        <v>-11.61436785697407</v>
       </c>
       <c r="F62" t="n">
-        <v>4.22860162719296</v>
+        <v>4.361409947219429</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.19871024300107</v>
+        <v>-10.5423570079907</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.254770358654246</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.34186466562639</v>
+        <v>-11.3845717574961</v>
       </c>
       <c r="F63" t="n">
-        <v>4.306684121341014</v>
+        <v>4.456774281118562</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.42243151396049</v>
+        <v>-10.75957140443778</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.361927887047116</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.29592377495477</v>
+        <v>-11.353228784493</v>
       </c>
       <c r="F64" t="n">
-        <v>4.205873389459724</v>
+        <v>4.344966014850222</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.63467083532771</v>
+        <v>-11.00274783742</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.474941198662367</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.37921700563383</v>
+        <v>-11.44838364154667</v>
       </c>
       <c r="F65" t="n">
-        <v>4.218599107821881</v>
+        <v>4.351197951002884</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.5047690065321</v>
+        <v>-10.82016258198929</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.597790895007371</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.24007201103196</v>
+        <v>-11.3109013694057</v>
       </c>
       <c r="F66" t="n">
-        <v>4.240227592116413</v>
+        <v>4.37476409611799</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.68558680107918</v>
+        <v>-10.99303334871144</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.729817369843678</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.520653153233</v>
+        <v>-11.59990086233396</v>
       </c>
       <c r="F67" t="n">
-        <v>3.939497395841965</v>
+        <v>4.074740884196996</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.79245926917619</v>
+        <v>-11.10565333775596</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.874310052705499</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51371423272688</v>
+        <v>-11.58205605356069</v>
       </c>
       <c r="F68" t="n">
-        <v>4.066911687097644</v>
+        <v>4.221976921955047</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.57634462616782</v>
+        <v>-10.89903061430784</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.029236638576687</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.46841486489451</v>
+        <v>-11.56338642970839</v>
       </c>
       <c r="F69" t="n">
-        <v>4.034390406838796</v>
+        <v>4.179505491536488</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.65208359810721</v>
+        <v>-11.02258267622521</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.196989355831843</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.67693597225468</v>
+        <v>-11.75446858968338</v>
       </c>
       <c r="F70" t="n">
-        <v>3.787993267357511</v>
+        <v>3.913915036089233</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.72028140360976</v>
+        <v>-11.08157659283003</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.373824399429684</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.63375755748267</v>
+        <v>-11.71212808229324</v>
       </c>
       <c r="F71" t="n">
-        <v>3.701845914658954</v>
+        <v>3.848636814120387</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.72320098714346</v>
+        <v>-11.0781464094855</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.561297290263427</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.80118192622266</v>
+        <v>-11.87792900548086</v>
       </c>
       <c r="F72" t="n">
-        <v>3.733791133592765</v>
+        <v>3.869008437342112</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.89469706206723</v>
+        <v>-11.26234201816574</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.754576688697524</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.20362622327448</v>
+        <v>-12.31627239692469</v>
       </c>
       <c r="F73" t="n">
-        <v>3.842797647052977</v>
+        <v>4.004670879388078</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.6774041118031</v>
+        <v>-11.02128653824388</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.954870338114941</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.51587764604965</v>
+        <v>-12.64097459970234</v>
       </c>
       <c r="F74" t="n">
-        <v>3.834654234685423</v>
+        <v>3.975448859445345</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.58324426976541</v>
+        <v>-10.92461297406058</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.158217072879187</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.81135782888456</v>
+        <v>-12.89931191937528</v>
       </c>
       <c r="F75" t="n">
-        <v>3.789904743572403</v>
+        <v>3.943032317609231</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.51043797366257</v>
+        <v>-10.86362902742382</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.365791056235207</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.05675995334987</v>
+        <v>-13.15928577690343</v>
       </c>
       <c r="F76" t="n">
-        <v>3.795246403131828</v>
+        <v>3.962566033449086</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.45456002513408</v>
+        <v>-10.80864135548857</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.575174768503726</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.49723739015691</v>
+        <v>-13.58489035768226</v>
       </c>
       <c r="F77" t="n">
-        <v>3.808574367424705</v>
+        <v>3.958795450230669</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.2331691840805</v>
+        <v>-10.58743380667476</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.786150848922611</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.25402486362004</v>
+        <v>-14.33153129644306</v>
       </c>
       <c r="F78" t="n">
-        <v>3.783175299911756</v>
+        <v>3.926143246943405</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.921022499728064</v>
+        <v>-10.27333636919891</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.996993375658191</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.86119350020793</v>
+        <v>-14.95281343549433</v>
       </c>
       <c r="F79" t="n">
-        <v>3.929390138048153</v>
+        <v>4.11087564004016</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.940647861687811</v>
+        <v>-10.30727161816467</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.205244133873294</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.24543949630975</v>
+        <v>-15.34477079796992</v>
       </c>
       <c r="F80" t="n">
-        <v>3.964241848212827</v>
+        <v>4.1234704353739</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.535729119398907</v>
+        <v>-9.886223158774756</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.40924760524366</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.8015481518149</v>
+        <v>-15.87635757025252</v>
       </c>
       <c r="F81" t="n">
-        <v>3.952720621712109</v>
+        <v>4.116295853416634</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.344804067058016</v>
+        <v>-9.698453351418721</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.605057897939609</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.63667996548293</v>
+        <v>-16.69564769748206</v>
       </c>
       <c r="F82" t="n">
-        <v>3.842483431784775</v>
+        <v>4.022083642167574</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.102688110605975</v>
+        <v>-9.463800007586464</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.79235999106222</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.60380837640123</v>
+        <v>-17.66666452234436</v>
       </c>
       <c r="F83" t="n">
-        <v>3.945938808840094</v>
+        <v>4.121401851524907</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.914211318896488</v>
+        <v>-9.268593772216327</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.966881571290919</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.5394236143795</v>
+        <v>-18.60244996025957</v>
       </c>
       <c r="F84" t="n">
-        <v>3.880032156334845</v>
+        <v>4.060627381733615</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.60726227877222</v>
+        <v>-8.966357961115081</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.129778415293836</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56876664840169</v>
+        <v>-19.6458017583224</v>
       </c>
       <c r="F85" t="n">
-        <v>4.042507634600666</v>
+        <v>4.210586618482745</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.402668862264566</v>
+        <v>-8.747755780566782</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.277177835808081</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.75177404087721</v>
+        <v>-20.82726425906261</v>
       </c>
       <c r="F86" t="n">
-        <v>4.042088680909731</v>
+        <v>4.219829784289004</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.256257639585543</v>
+        <v>-8.607524124829053</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.410721574886164</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.9490127665417</v>
+        <v>-22.03789641053417</v>
       </c>
       <c r="F87" t="n">
-        <v>4.00082174235261</v>
+        <v>4.172645124847423</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.099555866872924</v>
+        <v>-8.453231335839313</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.525667966746649</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.36590105698182</v>
+        <v>-23.46541565088177</v>
       </c>
       <c r="F88" t="n">
-        <v>4.223678921324471</v>
+        <v>4.372931173720149</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.013028837391957</v>
+        <v>-8.372805319482589</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.620582719123153</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.86512683999355</v>
+        <v>-24.97718386001588</v>
       </c>
       <c r="F89" t="n">
-        <v>4.083460357889585</v>
+        <v>4.260651584549506</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.761551884408083</v>
+        <v>-8.082496596270156</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.688046730437803</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.51026633817632</v>
+        <v>-26.63800793700305</v>
       </c>
       <c r="F90" t="n">
-        <v>4.212419540880587</v>
+        <v>4.347663029235617</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.93575806602009</v>
+        <v>-8.279012061924464</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.722109029252474</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.20877006274197</v>
+        <v>-28.30128027462161</v>
       </c>
       <c r="F91" t="n">
-        <v>4.369239144318782</v>
+        <v>4.529227085044674</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.643825897255281</v>
+        <v>-7.968750669181239</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.714034083930803</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.17611113385962</v>
+        <v>-30.29745059659674</v>
       </c>
       <c r="F92" t="n">
-        <v>4.256645339879937</v>
+        <v>4.406604576629068</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.828230982780993</v>
+        <v>-8.176748084427741</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.655205267801199</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.0185516358672</v>
+        <v>-32.15420098561033</v>
       </c>
       <c r="F93" t="n">
-        <v>4.181338413934329</v>
+        <v>4.304275137618137</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.697740000357509</v>
+        <v>-8.08997230119278</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.540248672570287</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.0075866527936</v>
+        <v>-34.15164126096111</v>
       </c>
       <c r="F94" t="n">
-        <v>4.470573568313742</v>
+        <v>4.632446800648843</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.540265781777229</v>
+        <v>-7.875598934462358</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.365597044835506</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.10757893630362</v>
+        <v>-36.21878495664124</v>
       </c>
       <c r="F95" t="n">
-        <v>4.170864571660949</v>
+        <v>4.295398556291447</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.328419229495259</v>
+        <v>-7.686585358336359</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.133744197040574</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.36596189959284</v>
+        <v>-38.47038610705845</v>
       </c>
       <c r="F96" t="n">
-        <v>4.060470274099514</v>
+        <v>4.192231209898646</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.399772279982666</v>
+        <v>-7.744243860051321</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.851218727605608</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.32607601954186</v>
+        <v>-40.38952131911286</v>
       </c>
       <c r="F97" t="n">
-        <v>3.851386197717149</v>
+        <v>3.966388985878871</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.00507862621315</v>
+        <v>-7.316164834035403</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.526870640958925</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.8913949306525</v>
+        <v>-42.95178972366138</v>
       </c>
       <c r="F98" t="n">
-        <v>3.834130542571754</v>
+        <v>3.947248039124267</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.031970216250055</v>
+        <v>-7.332595674101769</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.179285179962404</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.02008554199159</v>
+        <v>-45.0771941669872</v>
       </c>
       <c r="F99" t="n">
-        <v>3.743165222427441</v>
+        <v>3.80907187493269</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.763316161937836</v>
+        <v>-7.031158493473868</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.817115011576167</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.28824845550358</v>
+        <v>-47.30975910907254</v>
       </c>
       <c r="F100" t="n">
-        <v>3.638976676412985</v>
+        <v>3.692079056739026</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.587551996287664</v>
+        <v>-6.806088715321756</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.475164205428143</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.65940851547143</v>
+        <v>-49.71146351157013</v>
       </c>
       <c r="F101" t="n">
-        <v>3.35063179862681</v>
+        <v>3.403865101981268</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.607386835092879</v>
+        <v>-6.787720214434814</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.147668165979959</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.06801256156662</v>
+        <v>-52.11608749760143</v>
       </c>
       <c r="F102" t="n">
-        <v>2.937988597661288</v>
+        <v>2.990776762719127</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.624969797809317</v>
+        <v>-6.851427360062653</v>
       </c>
     </row>
   </sheetData>
